--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BB8BCA-3CE0-7F46-B809-A5425977290D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070CDB09-B43B-184D-9168-CB38E40D7EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21980" windowHeight="27300" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21980" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +494,7 @@
     </row>
     <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43882</v>
+        <v>43883</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070CDB09-B43B-184D-9168-CB38E40D7EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9103F25D-8970-7345-8599-BD6806739163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21980" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -53,50 +53,51 @@
 ser: 3,4,5</t>
   </si>
   <si>
-    <t>type: signin
-width: 2
-height: 1
-h3.width-half: Sign up to get unlimited access to the entire content of zakatlists
-button.primary: Sign In
-button.secondary: Sign Up for Rs 300 / Month</t>
+    <t>type: subscribe
+width: 2
+height: 1
+h6: Subscribe to stay tuned to zakatlists
+input: enter your email here
+button.default: Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type: footer
+width: 6
+height: 1
+p.small: Eat from their fruits, and give the due alms on the day of harvest. &lt;br&gt; - Al Quran 6:141
+facebook: facebook.com/zakatlists
+twitter: twitter.com/zakatlists
+makerlog: getmakerlog.com/@punch__lines </t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 41</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 35</t>
   </si>
   <si>
     <t>type: meetup
 width: 2
 height: 1
+h3: Meetup coming in
 date: 1 Mar 2020
 button.default: Speak
 button.default: Attend
 button.default: Details</t>
   </si>
   <si>
-    <t>type: subscribe
-width: 2
-height: 1
-h6: Subscribe to stay tuned to zakatlists
-input: enter your email here
-button.default: Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type: footer
-width: 6
-height: 1
-p.small: Eat from their fruits, and give the due alms on the day of harvest. &lt;br&gt; - Al Quran 6:141
-facebook: facebook.com/zakatlists
-twitter: twitter.com/zakatlists
-makerlog: getmakerlog.com/@punch__lines </t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 41</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 35</t>
+    <t>type: signin
+width: 2
+height: 1
+h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
+button.primary: Sign In
+button.secondary: Sign Up for Rs 300 / Month</t>
   </si>
 </sst>
 </file>
@@ -454,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,22 +507,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9103F25D-8970-7345-8599-BD6806739163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1BAAC-7691-0641-89ED-17662B4FE075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21980" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="21120" yWindow="460" windowWidth="21980" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
 url: https://www.zakatlists.com</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 1</t>
-  </si>
-  <si>
     <t>type: course
 width: 2
 height: 2
@@ -74,12 +68,6 @@
 width: 2
 height: 1
 ser: 41</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 35</t>
   </si>
   <si>
     <t>type: meetup
@@ -98,6 +86,18 @@
 h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
 button.primary: Sign In
 button.secondary: Sign Up for Rs 300 / Month</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 26</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 36</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,28 +501,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1BAAC-7691-0641-89ED-17662B4FE075}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC22EA10-3DD8-4B44-AF9A-F814065565EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="460" windowWidth="21980" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,26 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>type: person
-width: 2
-height: 1
-img: person.png
-facebook: facebook.com/zakatlists
-twitter: twitter.com/zakatlists
-makerlog: makerlog.com/@punch__lines
-intro: He is a good boy, working hard to make zakatlists work. 💪
-url: https://www.zakatlists.com</t>
-  </si>
-  <si>
-    <t>type: course
-width: 2
-height: 2
-ser: 3,4,5</t>
   </si>
   <si>
     <t>type: subscribe
@@ -55,49 +38,62 @@
 button.default: Submit</t>
   </si>
   <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 41</t>
+  </si>
+  <si>
+    <t>type: course
+width: 2
+height: 2
+ser: 4,5,6,7</t>
+  </si>
+  <si>
     <t xml:space="preserve">type: footer
 width: 6
 height: 1
 p.small: Eat from their fruits, and give the due alms on the day of harvest. &lt;br&gt; - Al Quran 6:141
-facebook: facebook.com/zakatlists
-twitter: twitter.com/zakatlists
-makerlog: getmakerlog.com/@punch__lines </t>
-  </si>
-  <si>
-    <t>type: blog
+facebook: https://facebook.com/zakatlists
+twitter: https://twitter.com/zakatlists
+makerlog: https://getmakerlog.com/@punch__lines </t>
+  </si>
+  <si>
+    <t>type: signin
 width: 2
 height: 1
-ser: 41</t>
+h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
+button.primary: Sign In*goto("/signin/home")
+button.secondary: Sign Up for Rs 300 / Month*alert('Thank you for considering sign up, this feature has not yet released, please stay tuned for upcoming releases.')</t>
   </si>
   <si>
     <t>type: meetup
 width: 2
 height: 1
 h3: Meetup coming in
-date: 1 Mar 2020
-button.default: Speak
-button.default: Attend
-button.default: Details</t>
-  </si>
-  <si>
-    <t>type: signin
+date: 2020,2,1,10,30,0,0
+button.default: Speak*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
+button.default: Attend*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
+button.default: Details*goto("https://www.meetup.com/techshek/events/268858699/")</t>
+  </si>
+  <si>
+    <t>type: person
+width: 2
+height: 2
+h3: Featured Person
+img: fajar2.png
+facebook: https://www.facebook.com/fajarsiddiqFS
+twitter: https://twitter.com/fajarsiddiqFS
+makerlog: https://getmakerlog.com/@fajarsiddiq
+h6: Fajar Saddiq - Singapore
+intro: Featuring him, because I can't find any one more honest than him. ❤️
+url: https://www.fajarsiddiq.com/</t>
+  </si>
+  <si>
+    <t>type: blog
 width: 2
 height: 1
-h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
-button.primary: Sign In
-button.secondary: Sign Up for Rs 300 / Month</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 26</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 36</t>
+ser: 56</t>
   </si>
 </sst>
 </file>
@@ -453,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -461,7 +457,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,39 +485,33 @@
       <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43883</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC22EA10-3DD8-4B44-AF9A-F814065565EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0B99BE-5C1D-8740-9022-5517350DED1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -59,24 +59,6 @@
 makerlog: https://getmakerlog.com/@punch__lines </t>
   </si>
   <si>
-    <t>type: signin
-width: 2
-height: 1
-h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
-button.primary: Sign In*goto("/signin/home")
-button.secondary: Sign Up for Rs 300 / Month*alert('Thank you for considering sign up, this feature has not yet released, please stay tuned for upcoming releases.')</t>
-  </si>
-  <si>
-    <t>type: meetup
-width: 2
-height: 1
-h3: Meetup coming in
-date: 2020,2,1,10,30,0,0
-button.default: Speak*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
-button.default: Attend*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
-button.default: Details*goto("https://www.meetup.com/techshek/events/268858699/")</t>
-  </si>
-  <si>
     <t>type: person
 width: 2
 height: 2
@@ -94,6 +76,24 @@
 width: 2
 height: 1
 ser: 56</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 2
+height: 1
+h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
+button.primary: Sign In*goto("/signin/home")
+button.secondary: Sign Up for Rs 300 / Month*goto("/signup")</t>
+  </si>
+  <si>
+    <t>type: meetup
+width: 2
+height: 1
+h3: Meetup coming in
+date: 2020,3,4,10,30,0,0
+button.default: Speak*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
+button.default: Attend*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
+button.default: Details*goto("https://www.meetup.com/techshek/events/268858699/")</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,19 +491,19 @@
         <v>43883</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0B99BE-5C1D-8740-9022-5517350DED1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0719228-4440-F84A-A83D-2CDCAA46435F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -59,6 +59,30 @@
 makerlog: https://getmakerlog.com/@punch__lines </t>
   </si>
   <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 56</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 2
+height: 1
+h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
+button.primary: Sign In*goto("/signin/home")
+button.secondary: Sign Up for Rs 300 / Month*goto("/signup")</t>
+  </si>
+  <si>
+    <t>type: meetup
+width: 2
+height: 1
+h3: Meetup coming in
+date: 2020,3,4,10,30,0,0
+button.default: Speak*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
+button.default: Attend*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
+button.default: Details*goto("https://www.meetup.com/techshek/events/268858699/")</t>
+  </si>
+  <si>
     <t>type: person
 width: 2
 height: 2
@@ -68,32 +92,8 @@
 twitter: https://twitter.com/fajarsiddiqFS
 makerlog: https://getmakerlog.com/@fajarsiddiq
 h6: Fajar Saddiq - Singapore
-intro: Featuring him, because I can't find any one more honest than him. ❤️
+intro: Featuring him for his love, effort and contribution towards building zakatlists. He is running Ramadan Makers, an online community of passionate developers who are changing the world every moment. Call him, he will bring a smile on your face. 🔥
 url: https://www.fajarsiddiq.com/</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 56</t>
-  </si>
-  <si>
-    <t>type: signin
-width: 2
-height: 1
-h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
-button.primary: Sign In*goto("/signin/home")
-button.secondary: Sign Up for Rs 300 / Month*goto("/signup")</t>
-  </si>
-  <si>
-    <t>type: meetup
-width: 2
-height: 1
-h3: Meetup coming in
-date: 2020,3,4,10,30,0,0
-button.default: Speak*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
-button.default: Attend*goto("https://forms.gle/c6LUNufW3QuiR5bd7")
-button.default: Details*goto("https://www.meetup.com/techshek/events/268858699/")</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,19 +491,19 @@
         <v>43883</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0719228-4440-F84A-A83D-2CDCAA46435F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1684D5D-911A-B74C-9C5D-31677A48793D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -59,12 +59,6 @@
 makerlog: https://getmakerlog.com/@punch__lines </t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 56</t>
-  </si>
-  <si>
     <t>type: signin
 width: 2
 height: 1
@@ -94,6 +88,12 @@
 h6: Fajar Saddiq - Singapore
 intro: Featuring him for his love, effort and contribution towards building zakatlists. He is running Ramadan Makers, an online community of passionate developers who are changing the world every moment. Call him, he will bring a smile on your face. 🔥
 url: https://www.fajarsiddiq.com/</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 61</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,19 +491,19 @@
         <v>43883</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>2</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1684D5D-911A-B74C-9C5D-31677A48793D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55139675-7E7F-9E4A-92F1-2E3292741021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -94,6 +94,24 @@
 width: 2
 height: 1
 ser: 61</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 62</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 25</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 15</t>
   </si>
 </sst>
 </file>
@@ -449,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,10 +503,19 @@
       <c r="I1">
         <v>8</v>
       </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43883</v>
+        <v>43892</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -512,6 +539,44 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55139675-7E7F-9E4A-92F1-2E3292741021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206D1D7-9C1E-9F43-A5DE-09D10B05A5AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Day</t>
   </si>
@@ -112,6 +112,12 @@
 width: 2
 height: 1
 ser: 15</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 60</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,6 +586,37 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206D1D7-9C1E-9F43-A5DE-09D10B05A5AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803B3589-60D4-164C-963E-77C340F575B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Day</t>
   </si>
@@ -118,6 +118,12 @@
 width: 2
 height: 1
 ser: 60</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 63</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,6 +623,35 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
+    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803B3589-60D4-164C-963E-77C340F575B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F451588-9AD1-0747-80D1-CE8784490EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -124,6 +124,39 @@
 width: 2
 height: 1
 ser: 63</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 64</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 65</t>
+  </si>
+  <si>
+    <t>type: person
+width: 2
+height: 2
+h3: Featured Person
+img: sergio.png
+twitter: https://twitter.com/matteing
+makerlog: https://getmakerlog.com/@sergio
+coffee: https://www.buymeacoffee.com/mattei
+h6: Sergio Mattei Díaz - Peurto Rico
+intro: 19 Year Old but he is all fire. I am twice his age and I am twice behind his accomplishments. Running for microsoft Imagine Cup finalist to making it to top charts on Product Hunt and Indie Hackers are few of his accomplishments. Listen to his podcast below on Indie Hackers to lift your self up. 🔥
+url: &lt;a href=https://podcasts.apple.com/pk/podcast/the-indie-hackers-podcast/id1206165808?i=1000466997242 target=_blank&gt;Podcast Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>type: video
+width: 2
+height: 1
+h3: Featured Video
+p: Listened to this video of Omar Sulaiman today. I never had heard about him.. Such an amazing speaker. Must listen him giving this talk to get a motivational fix in your life. 
+button.youtube: Watch on Youtube*`https://www.youtube.com/watch?v=RGypeGiH4ys&amp;t=623s`</t>
   </si>
 </sst>
 </file>
@@ -479,13 +512,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -652,6 +689,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F451588-9AD1-0747-80D1-CE8784490EC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8DCCA2-9CE7-3B47-82C4-1D567B654C03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -129,12 +129,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 64</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 65</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
 h3: Featured Video
 p: Listened to this video of Omar Sulaiman today. I never had heard about him.. Such an amazing speaker. Must listen him giving this talk to get a motivational fix in your life. 
 button.youtube: Watch on Youtube*`https://www.youtube.com/watch?v=RGypeGiH4ys&amp;t=623s`</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 66</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,10 +694,10 @@
         <v>43897</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -712,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>1</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8DCCA2-9CE7-3B47-82C4-1D567B654C03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7543A-F7A1-834A-84BD-1D81A257FCFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>Day</t>
   </si>
@@ -157,6 +157,12 @@
 width: 2
 height: 1
 ser: 66</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 68</t>
   </si>
 </sst>
 </file>
@@ -512,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +727,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7543A-F7A1-834A-84BD-1D81A257FCFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E30834-B502-584F-B49A-6358633031AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -163,6 +163,12 @@
 width: 2
 height: 1
 ser: 68</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 69</t>
   </si>
 </sst>
 </file>
@@ -521,7 +527,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,7 +741,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -747,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E30834-B502-584F-B49A-6358633031AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580E7D1-4A11-EA48-B977-DF9D9DCFACD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580E7D1-4A11-EA48-B977-DF9D9DCFACD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14772DB0-E1C8-1C42-89B7-DC262AD17A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -162,13 +162,13 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 68</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 69</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 71</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14772DB0-E1C8-1C42-89B7-DC262AD17A56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DBE9B2-ED4A-BD42-9575-C5FA758D9984}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="460" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="10360" yWindow="1280" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Day</t>
   </si>
@@ -169,6 +169,20 @@
 width: 2
 height: 1
 ser: 71</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 72</t>
+  </si>
+  <si>
+    <t>type: video
+width: 2
+height: 1
+h3: Featured Video
+p: May be I am wrong. But Quran is not wrong guys. I found it literally amazing. Listen to this video by Omar Sulaiman. It will give you chills. 
+button.youtube: Watch on Youtube*`https://www.youtube.com/watch?v=RGypeGiH4ys&amp;t=623s`</t>
   </si>
 </sst>
 </file>
@@ -526,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,33 +747,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DBE9B2-ED4A-BD42-9575-C5FA758D9984}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560CB84-454C-3845-A38E-73EA7380BFFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="1280" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -162,12 +162,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 69</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 71</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 h3: Featured Video
 p: May be I am wrong. But Quran is not wrong guys. I found it literally amazing. Listen to this video by Omar Sulaiman. It will give you chills. 
 button.youtube: Watch on Youtube*`https://www.youtube.com/watch?v=RGypeGiH4ys&amp;t=623s`</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 73</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,10 +752,10 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5560CB84-454C-3845-A38E-73EA7380BFFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3680E2F4-4DD1-774F-8A7C-F6CDCD85341E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="1280" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -162,12 +162,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 71</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 72</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 73</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 74</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -761,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3680E2F4-4DD1-774F-8A7C-F6CDCD85341E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7AAFF-7E5E-DD45-AB18-26E0ABB4B64B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="1280" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="3040" yWindow="2700" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,12 +159,6 @@
 ser: 66</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 72</t>
-  </si>
-  <si>
     <t>type: video
 width: 2
 height: 1
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 74</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 75</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7AAFF-7E5E-DD45-AB18-26E0ABB4B64B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F7F04-93AD-9141-8473-1FD26FED2B90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2700" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 73</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 74</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 75</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 76</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7F7F04-93AD-9141-8473-1FD26FED2B90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF0206-46CE-4243-94EF-24C9AFF591D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2700" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 74</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 75</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 76</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 77</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF0206-46CE-4243-94EF-24C9AFF591D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9AFCA1-7F29-C94D-9683-18690A38C3AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2700" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 75</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 76</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 77</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 78</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9AFCA1-7F29-C94D-9683-18690A38C3AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2353EA-25EE-8849-B6C9-4FAE2FD32686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2700" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 76</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 77</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 78</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 79</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2353EA-25EE-8849-B6C9-4FAE2FD32686}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA1F12-5805-F64F-B73D-C0E97947AEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2700" windowWidth="36280" windowHeight="23780" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 77</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 78</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 79</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 80</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA1F12-5805-F64F-B73D-C0E97947AEE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A355FC1-C63D-AA41-81D2-CC9D2F6972E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 78</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 79</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
 width: 2
 height: 1
 ser: 80</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 81</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A355FC1-C63D-AA41-81D2-CC9D2F6972E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF4E30-8982-484C-A071-8F0FCAE16492}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 79</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 80</t>
   </si>
   <si>
@@ -183,6 +177,22 @@
 width: 2
 height: 1
 ser: 81</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 82</t>
+  </si>
+  <si>
+    <t>type: meetup
+width: 2
+height: 1
+h3: Meetup coming in
+date: 2020,3,5,10,30,0,0
+button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
+button.default: Attend*goto("https://youtu.be/vscn-HP932E")
+button.default: Details*goto("https://www.meetup.com/techshek/events/269581504/")</t>
   </si>
 </sst>
 </file>
@@ -540,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +768,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF4E30-8982-484C-A071-8F0FCAE16492}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAF0E3-318C-314C-9328-E2787CE050E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 80</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 81</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
 button.default: Details*goto("https://www.meetup.com/techshek/events/269581504/")</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 83</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,10 +765,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAF0E3-318C-314C-9328-E2787CE050E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC77AD38-569D-D24E-8F05-1C7B67644768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 81</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 82</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 83</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 84</t>
   </si>
 </sst>
 </file>
@@ -768,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC77AD38-569D-D24E-8F05-1C7B67644768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE980D7B-557B-244D-87E8-F8717230586A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -167,12 +167,6 @@
 button.youtube: Watch on Youtube*`https://www.youtube.com/watch?v=RGypeGiH4ys&amp;t=623s`</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 82</t>
-  </si>
-  <si>
     <t>type: meetup
 width: 2
 height: 1
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 84</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 85</t>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE980D7B-557B-244D-87E8-F8717230586A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0252702E-2977-8345-9FC0-A9C077B61E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 83</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 84</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 85</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 86</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0252702E-2977-8345-9FC0-A9C077B61E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C5FDE6-89E8-304D-901F-72803BA5AB23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 84</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 85</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 86</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 87</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C5FDE6-89E8-304D-901F-72803BA5AB23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E1AA50-9974-F845-8363-AF82409966AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 85</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 86</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 87</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 88</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E1AA50-9974-F845-8363-AF82409966AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE973CA-4B6B-1847-B834-6AFA318ADC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -180,19 +180,19 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 86</t>
+ser: 89</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 88</t>
   </si>
   <si>
     <t>type: blog
 width: 2
 height: 1
 ser: 87</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 88</t>
   </si>
 </sst>
 </file>
@@ -765,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE973CA-4B6B-1847-B834-6AFA318ADC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528FA909-5DF0-BC4A-8856-4B9E16EEB4CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -192,7 +192,7 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 87</t>
+ser: 90</t>
   </si>
 </sst>
 </file>
@@ -765,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528FA909-5DF0-BC4A-8856-4B9E16EEB4CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75078F1-2BF5-A542-99D1-E9A2A095918E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -186,13 +186,13 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 88</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 90</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 91</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75078F1-2BF5-A542-99D1-E9A2A095918E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A48F1-C3CE-954D-A3FA-2207369A84AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 89</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 90</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 91</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 92</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A48F1-C3CE-954D-A3FA-2207369A84AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4402D6-525A-D74B-9CBA-DF8DE4C996E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 90</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 91</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 92</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 93</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4402D6-525A-D74B-9CBA-DF8DE4C996E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69248C4-80A6-3B4C-B086-A61CE8C6EC9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 91</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 92</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 width: 2
 height: 1
 ser: 93</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 94</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69248C4-80A6-3B4C-B086-A61CE8C6EC9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B2421-B2A5-D34A-8739-5AC0B47B5834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -167,32 +167,32 @@
 button.youtube: Watch on Youtube*`https://www.youtube.com/watch?v=RGypeGiH4ys&amp;t=623s`</t>
   </si>
   <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 93</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 94</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 95</t>
+  </si>
+  <si>
     <t>type: meetup
 width: 2
 height: 1
 h3: Meetup coming in
-date: 2020,3,5,10,30,0,0
+date: 2020,4,3,10,30,0,0
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
 button.default: Details*goto("https://www.meetup.com/techshek/events/269581504/")</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 92</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 93</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 94</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B2421-B2A5-D34A-8739-5AC0B47B5834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154C462-A86A-084B-9FF2-B9C862389C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 93</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 94</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
 button.default: Details*goto("https://www.meetup.com/techshek/events/269581504/")</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 96</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,10 +765,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154C462-A86A-084B-9FF2-B9C862389C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9CB93C-1312-1F48-9D84-B46752780EC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="11860" yWindow="6600" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,14 +159,6 @@
 ser: 66</t>
   </si>
   <si>
-    <t>type: video
-width: 2
-height: 1
-h3: Featured Video
-p: May be I am wrong. But Quran is not wrong guys. I found it literally amazing. Listen to this video by Omar Sulaiman. It will give you chills. 
-button.youtube: Watch on Youtube*`https://www.youtube.com/watch?v=RGypeGiH4ys&amp;t=623s`</t>
-  </si>
-  <si>
     <t>type: blog
 width: 2
 height: 1
@@ -193,6 +185,15 @@
 width: 2
 height: 1
 ser: 96</t>
+  </si>
+  <si>
+    <t>type: featured_blog
+width: 2
+height: 1
+h3: Rules of being a good desi
+p: Some rules to follow if you want to lit Pakistan brighter. We here at zakatlists are bounded by these rules. 😀
+date: 6 Apr 2020
+author: &lt;a href=https://justaashir.com target=_blank&gt;Aashir&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -551,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,16 +763,16 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -783,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9CB93C-1312-1F48-9D84-B46752780EC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0C1197-139B-9A4B-B4CC-AC3B5AD8DCAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="6600" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,12 +162,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 94</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 95</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 p: Some rules to follow if you want to lit Pakistan brighter. We here at zakatlists are bounded by these rules. 😀
 date: 6 Apr 2020
 author: &lt;a href=https://justaashir.com target=_blank&gt;Aashir&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 98</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,16 +763,16 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0C1197-139B-9A4B-B4CC-AC3B5AD8DCAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A6B43-68EA-9346-B6D6-7C99AC88D213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -159,12 +159,6 @@
 ser: 66</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 95</t>
-  </si>
-  <si>
     <t>type: meetup
 width: 2
 height: 1
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 98</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 97</t>
   </si>
 </sst>
 </file>
@@ -763,16 +763,16 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A6B43-68EA-9346-B6D6-7C99AC88D213}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B0B299-A6C5-D34C-A92E-C3895DFA48D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -169,12 +169,6 @@
 button.default: Details*goto("https://www.meetup.com/techshek/events/269581504/")</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 96</t>
-  </si>
-  <si>
     <t>type: featured_blog
 width: 2
 height: 1
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 97</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 99</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B0B299-A6C5-D34C-A92E-C3895DFA48D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20D7AB-9E66-F548-800D-9074BFA4864B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -187,13 +187,13 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 97</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 99</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 100</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20D7AB-9E66-F548-800D-9074BFA4864B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD10ABB-57F3-8043-A745-1F7DC4E8BF64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 98</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 99</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 100</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 101</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD10ABB-57F3-8043-A745-1F7DC4E8BF64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E2352-8E1E-4C47-9ADD-B112894C2E32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Day</t>
   </si>
@@ -181,19 +181,13 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 99</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 100</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 101</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 103</t>
   </si>
 </sst>
 </file>
@@ -766,13 +760,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -783,8 +777,8 @@
       <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
+      <c r="I7" s="2">
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E2352-8E1E-4C47-9ADD-B112894C2E32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED17FF-3490-7147-B262-BE6885F57CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ED17FF-3490-7147-B262-BE6885F57CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A13A8-A938-9449-A718-8A838310C250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -188,6 +188,12 @@
 width: 2
 height: 1
 ser: 103</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 102</t>
   </si>
 </sst>
 </file>
@@ -760,13 +766,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -777,8 +783,8 @@
       <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
-        <v>100</v>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A13A8-A938-9449-A718-8A838310C250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA2E04-0DEB-884E-BE1C-749E06A90D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 101</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 103</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 102</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 104</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA2E04-0DEB-884E-BE1C-749E06A90D0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82836343-4259-E149-8474-F0382A235986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,13 +187,13 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 102</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 104</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 105</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82836343-4259-E149-8474-F0382A235986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3963A-D838-7149-9AA1-4C029FB5B774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 103</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 104</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 105</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 106</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF3963A-D838-7149-9AA1-4C029FB5B774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1589F566-DD52-8647-AF3F-F77CFDEBEDA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 104</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 105</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 106</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 107</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1589F566-DD52-8647-AF3F-F77CFDEBEDA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6363109B-0C79-6C40-AF64-8B4E90D827F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 105</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 106</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 107</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 108</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6363109B-0C79-6C40-AF64-8B4E90D827F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE4D741-A582-3D4F-BA85-5B593DEBE12B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE4D741-A582-3D4F-BA85-5B593DEBE12B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E159CE2F-CFBB-5D4C-82F4-D3B0163E2306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 106</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 107</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 108</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 110</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E159CE2F-CFBB-5D4C-82F4-D3B0163E2306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C8FE3-CE0D-3247-B16E-247FDD175F04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 107</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 108</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 110</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 109</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87C8FE3-CE0D-3247-B16E-247FDD175F04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CBAB0A-60D7-3945-AFCC-C03D83DAD036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 108</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 110</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 109</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 111</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CBAB0A-60D7-3945-AFCC-C03D83DAD036}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D551D529-4479-AE48-ADBE-D8555FEE4DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -187,13 +187,13 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 109</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 111</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 112</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D551D529-4479-AE48-ADBE-D8555FEE4DB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36362256-5D8B-BC47-AEED-266AA58F9279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 110</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 111</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 112</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 113</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36362256-5D8B-BC47-AEED-266AA58F9279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A51FDC-421E-C34A-B153-613B987896A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 111</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 112</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 113</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 114</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A51FDC-421E-C34A-B153-613B987896A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD78A84-C2E2-284D-B715-3180FA8953E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,12 +181,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 112</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 113</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
 width: 2
 height: 1
 ser: 114</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 115</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD78A84-C2E2-284D-B715-3180FA8953E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D607F6-A867-2B49-A108-D1D1929737AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,6 +159,33 @@
 ser: 66</t>
   </si>
   <si>
+    <t>type: featured_blog
+width: 2
+height: 1
+h3: Rules of being a good desi
+p: Some rules to follow if you want to lit Pakistan brighter. We here at zakatlists are bounded by these rules. 😀
+date: 6 Apr 2020
+author: &lt;a href=https://justaashir.com target=_blank&gt;Aashir&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 114</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 115</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 116</t>
+  </si>
+  <si>
     <t>type: meetup
 width: 2
 height: 1
@@ -166,34 +193,7 @@
 date: 2020,4,3,10,30,0,0
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
-button.default: Details*goto("https://www.meetup.com/techshek/events/269581504/")</t>
-  </si>
-  <si>
-    <t>type: featured_blog
-width: 2
-height: 1
-h3: Rules of being a good desi
-p: Some rules to follow if you want to lit Pakistan brighter. We here at zakatlists are bounded by these rules. 😀
-date: 6 Apr 2020
-author: &lt;a href=https://justaashir.com target=_blank&gt;Aashir&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 113</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 114</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 115</t>
+button.default: Details*goto("https://www.meetup.com/techshek/events/270179438/")</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,16 +763,16 @@
         <v>43897</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D607F6-A867-2B49-A108-D1D1929737AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A054BA-F9FD-A445-8070-757CD395864F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -171,12 +171,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 114</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 115</t>
   </si>
   <si>
@@ -194,6 +188,29 @@
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
 button.default: Details*goto("https://www.meetup.com/techshek/events/270179438/")</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 117</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 2
+height: 1
+h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
+button.primary: Sign In*goto(""/signin/home"")
+button.secondary: Sign Up for Rs 300 / Month*goto(""/signup"")</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 2
+height: 1
+h3: Raise / Sponsor Funds
+p: Try out our new feature. Help us build a school. Or help us distribute ration bags.
+button.primary: Create a Ticket*goto("/createticket")
+button.secondary: View Tickets*goto("/tickets")</t>
   </si>
 </sst>
 </file>
@@ -549,16 +566,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="28.33203125" customWidth="1"/>
     <col min="10" max="10" width="31.1640625" customWidth="1"/>
+    <col min="11" max="11" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -766,10 +784,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -787,6 +805,41 @@
         <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A054BA-F9FD-A445-8070-757CD395864F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9894B84-ECC6-404B-87A8-EA675480EA44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Day</t>
   </si>
@@ -211,6 +211,12 @@
 p: Try out our new feature. Help us build a school. Or help us distribute ration bags.
 button.primary: Create a Ticket*goto("/createticket")
 button.secondary: View Tickets*goto("/tickets")</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 118</t>
   </si>
 </sst>
 </file>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -816,13 +822,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -834,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>23</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9894B84-ECC6-404B-87A8-EA675480EA44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9DA742-DBCF-C446-B7E2-E62A8B03CCF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Day</t>
   </si>
@@ -217,6 +217,12 @@
 width: 2
 height: 1
 ser: 118</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 119</t>
   </si>
 </sst>
 </file>
@@ -822,13 +828,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -840,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>23</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9DA742-DBCF-C446-B7E2-E62A8B03CCF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0F18E-35AE-234C-B742-9D743D2CC712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -223,6 +223,12 @@
 width: 2
 height: 1
 ser: 119</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 120</t>
   </si>
 </sst>
 </file>
@@ -828,13 +834,13 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -846,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>23</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0F18E-35AE-234C-B742-9D743D2CC712}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3B14D-036E-D343-9904-F0BFC0862637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -216,12 +216,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 118</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 119</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
 width: 2
 height: 1
 ser: 120</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 121</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3B14D-036E-D343-9904-F0BFC0862637}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC6170-2233-384B-B2E6-262070044934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -229,6 +229,16 @@
 width: 2
 height: 1
 ser: 121</t>
+  </si>
+  <si>
+    <t>type: meetup
+width: 2
+height: 1
+h3: Meetup coming in
+date: 2020,5,7,10,30,0,0
+button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
+button.default: Attend*goto("https://youtu.be/vscn-HP932E")
+button.default: Details*goto("https://www.meetup.com/techshek/events/270179438/")</t>
   </si>
 </sst>
 </file>
@@ -587,7 +597,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,7 +847,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC6170-2233-384B-B2E6-262070044934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890E610-DBF8-8E40-9D34-4308CBD47B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,12 +216,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 119</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 120</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
 button.default: Details*goto("https://www.meetup.com/techshek/events/270179438/")</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 122</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,10 +844,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890E610-DBF8-8E40-9D34-4308CBD47B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760A30AF-AFB6-884B-9E6C-7C62D08C98C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -216,12 +216,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 120</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 121</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
 width: 2
 height: 1
 ser: 122</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 123</t>
   </si>
 </sst>
 </file>
@@ -847,10 +847,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760A30AF-AFB6-884B-9E6C-7C62D08C98C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FB05CA-7FAB-2B43-9CEE-517D99460961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -213,12 +213,6 @@
 button.secondary: View Tickets*goto("/tickets")</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 121</t>
-  </si>
-  <si>
     <t>type: meetup
 width: 2
 height: 1
@@ -239,6 +233,12 @@
 width: 2
 height: 1
 ser: 123</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 124</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>23</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FB05CA-7FAB-2B43-9CEE-517D99460961}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB472B-9E07-9E40-A2BC-972019CD0900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -226,12 +226,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 122</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 123</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
 width: 2
 height: 1
 ser: 124</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 125</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB472B-9E07-9E40-A2BC-972019CD0900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA36274F-D63B-D248-AF2D-7335F0252225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -226,12 +226,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 123</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 124</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
 width: 2
 height: 1
 ser: 125</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 127</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA36274F-D63B-D248-AF2D-7335F0252225}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D4AF5-CC4C-E940-B37F-8CCA800628E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -226,12 +226,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 124</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 125</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
 width: 2
 height: 1
 ser: 127</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 128</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D4AF5-CC4C-E940-B37F-8CCA800628E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02336890-247F-B640-800F-2D22AC61E347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -226,12 +226,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 125</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 127</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
 width: 2
 height: 1
 ser: 128</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 129</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02336890-247F-B640-800F-2D22AC61E347}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03A77D-8995-B141-A931-D25A5EC80298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Day</t>
   </si>
@@ -199,14 +199,6 @@
     <t>type: signin
 width: 2
 height: 1
-h3.w-half: Sign up to get unlimited access to the entire content of zakatlists
-button.primary: Sign In*goto(""/signin/home"")
-button.secondary: Sign Up for Rs 300 / Month*goto(""/signup"")</t>
-  </si>
-  <si>
-    <t>type: signin
-width: 2
-height: 1
 h3: Raise / Sponsor Funds
 p: Try out our new feature. Help us build a school. Or help us distribute ration bags.
 button.primary: Create a Ticket*goto("/createticket")
@@ -226,12 +218,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 127</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 128</t>
   </si>
   <si>
@@ -239,6 +225,12 @@
 width: 2
 height: 1
 ser: 129</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 130</t>
   </si>
 </sst>
 </file>
@@ -596,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,16 +833,16 @@
         <v>43951</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
@@ -862,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA03A77D-8995-B141-A931-D25A5EC80298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238B047-B400-674F-8251-3B4D81316667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -218,12 +218,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 128</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 129</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
 width: 2
 height: 1
 ser: 130</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 131</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B238B047-B400-674F-8251-3B4D81316667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB146D64-D7C6-B049-8D90-92E83F94FE15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -218,12 +218,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 129</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 130</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
 width: 2
 height: 1
 ser: 131</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 132</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB146D64-D7C6-B049-8D90-92E83F94FE15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16492681-D49F-5D45-822C-F0AFADAF6437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -218,12 +218,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 130</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 131</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
 width: 2
 height: 1
 ser: 132</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 133</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16492681-D49F-5D45-822C-F0AFADAF6437}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB67F2-A7D5-6640-A952-4C6EFF350989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -218,12 +218,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 131</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 132</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
 width: 2
 height: 1
 ser: 133</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 134</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEB67F2-A7D5-6640-A952-4C6EFF350989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C804D64B-11BE-FE47-A9CB-92F20A6C3622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -218,12 +218,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 132</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 133</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
 width: 2
 height: 1
 ser: 134</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 135</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C804D64B-11BE-FE47-A9CB-92F20A6C3622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399BC0BC-AFCD-304A-B581-2E7DE2BF54AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -196,15 +196,6 @@
 ser: 117</t>
   </si>
   <si>
-    <t>type: signin
-width: 2
-height: 1
-h3: Raise / Sponsor Funds
-p: Try out our new feature. Help us build a school. Or help us distribute ration bags.
-button.primary: Create a Ticket*goto("/createticket")
-button.secondary: View Tickets*goto("/tickets")</t>
-  </si>
-  <si>
     <t>type: meetup
 width: 2
 height: 1
@@ -231,6 +222,39 @@
 width: 2
 height: 1
 ser: 135</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 2
+height: 1
+h3: Raise / Sponsor Funds
+p: Try out our new feature. Raise Funds for your next project or Join us in building a brighter world.
+button.primary: Create a Ticket*goto("/createticket")
+button.secondary: View Tickets*goto("/tickets")
+svg: /icons/stars.svg</t>
+  </si>
+  <si>
+    <t>type: subscribe
+width: 2
+height: 1
+h3: Subscribe to stay tuned to zakatlists
+input: enter your email here
+button.default: Submit</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 2
+height: 1
+h3: Timeline
+p: World history at a single place on a map. Scroll, Research, Paint and Memorize. Do not ever fall short on what happened at which time. Check it out.
+button.default: Check it*goto("/timeline")
+svg: /icons/bgtimeline.svg</t>
+  </si>
+  <si>
+    <t>type: course
+width: 2
+height: 2
+ser: 3,4,5,6,7</t>
   </si>
 </sst>
 </file>
@@ -588,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,38 +852,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43951</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399BC0BC-AFCD-304A-B581-2E7DE2BF54AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B28CD3-E43D-A348-BF27-B85162D58DDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -209,12 +209,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 133</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 134</t>
   </si>
   <si>
@@ -255,6 +249,12 @@
 width: 2
 height: 2
 ser: 3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 136</t>
   </si>
 </sst>
 </file>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,6 +621,7 @@
     <col min="1" max="9" width="28.33203125" customWidth="1"/>
     <col min="10" max="10" width="31.1640625" customWidth="1"/>
     <col min="11" max="11" width="32.5" customWidth="1"/>
+    <col min="12" max="12" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -854,19 +855,19 @@
     </row>
     <row r="8" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43951</v>
+        <v>43970</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>23</v>
@@ -878,7 +879,7 @@
         <v>25</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>24</v>
@@ -887,6 +888,41 @@
         <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B28CD3-E43D-A348-BF27-B85162D58DDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C288F1-B24D-9A4C-A870-E13EDB43D4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Day</t>
   </si>
@@ -255,6 +255,12 @@
 width: 2
 height: 1
 ser: 136</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 138</t>
   </si>
 </sst>
 </file>
@@ -613,7 +619,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="255" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43970</v>
       </c>
@@ -923,6 +929,9 @@
         <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C288F1-B24D-9A4C-A870-E13EDB43D4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125433BF-190F-924C-843B-0FC0952D96AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -261,6 +261,12 @@
 width: 2
 height: 1
 ser: 138</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 137</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -905,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -917,13 +923,13 @@
         <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>5</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125433BF-190F-924C-843B-0FC0952D96AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D5481-9022-A946-9746-FE0200DCCB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="3780" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="3780" windowWidth="43640" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -267,6 +267,22 @@
 width: 2
 height: 1
 ser: 137</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 139</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 4
+height: 1
+h3: Zakatlists is Launching on Product Hunt - 27 May 2020
+p.w-m-50: I have been writing blogs for nearly 140 days this year. If these blogs or our techshek conferences have impacted your life in some way, please support me on the launch day. I will remind you on phone call or email you if you feel you will forget. 
+button.default: Set a reminder*goto("https://docs.google.com/forms/d/e/1FAIpQLScRWGicOlVW-RpquUYvHD769v45XACKZydnpTJcJVWxzHW0jg/viewform?usp=sf_link")
+button.default: What is Product Hunt*goto("https://www.producthunt.com/about")
+svg: /icons/producthunt.svg</t>
   </si>
 </sst>
 </file>
@@ -622,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,9 +650,10 @@
     <col min="10" max="10" width="31.1640625" customWidth="1"/>
     <col min="11" max="11" width="32.5" customWidth="1"/>
     <col min="12" max="12" width="35.83203125" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43892</v>
       </c>
@@ -703,7 +720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43894</v>
       </c>
@@ -741,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43895</v>
       </c>
@@ -772,7 +789,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43896</v>
       </c>
@@ -801,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43897</v>
       </c>
@@ -833,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43897</v>
       </c>
@@ -865,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43970</v>
       </c>
@@ -903,41 +920,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="255" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43971</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886D5481-9022-A946-9746-FE0200DCCB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6197AA-4231-E546-91CF-19DA7B4CC3AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3780" windowWidth="43640" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -260,12 +260,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 138</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 137</t>
   </si>
   <si>
@@ -283,6 +277,12 @@
 button.default: Set a reminder*goto("https://docs.google.com/forms/d/e/1FAIpQLScRWGicOlVW-RpquUYvHD769v45XACKZydnpTJcJVWxzHW0jg/viewform?usp=sf_link")
 button.default: What is Product Hunt*goto("https://www.producthunt.com/about")
 svg: /icons/producthunt.svg</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 141</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,10 +925,10 @@
         <v>43971</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -943,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6197AA-4231-E546-91CF-19DA7B4CC3AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA8F9B-5C8E-AB4F-A35A-6B6179D51367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3780" windowWidth="43640" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA8F9B-5C8E-AB4F-A35A-6B6179D51367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766C29F5-B808-5540-8C18-EA1284DEC2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3780" windowWidth="43640" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>Day</t>
   </si>
@@ -260,12 +260,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 137</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 139</t>
   </si>
   <si>
@@ -283,6 +277,18 @@
 width: 2
 height: 1
 ser: 141</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 138</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 143</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -925,10 +931,10 @@
         <v>43971</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -943,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -955,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766C29F5-B808-5540-8C18-EA1284DEC2C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A99F0-DE43-DC43-A20B-446C37F0087F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3780" windowWidth="43640" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Day</t>
   </si>
@@ -289,6 +289,22 @@
 width: 2
 height: 1
 ser: 143</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 2
+height: 1
+h3: Raise / Sponsor Funds
+p: Try out our new feature. Raise Funds for your next project or Join us in distributing rations.
+button.primary: Create a Ticket*goto("/createticket")
+button.secondary: View Tickets*goto("/tickets")
+svg: /icons/stars.svg</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 144</t>
   </si>
 </sst>
 </file>
@@ -644,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,6 +983,41 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82A99F0-DE43-DC43-A20B-446C37F0087F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B38041-72F9-594C-9CE3-BFA8A15B8359}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3780" windowWidth="43640" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>Day</t>
   </si>
@@ -305,6 +305,17 @@
 width: 2
 height: 1
 ser: 144</t>
+  </si>
+  <si>
+    <t>type: signin
+width: 4
+height: 1
+h3: Zakatlists is Launching on Product Hunt - 27 May 2020
+p.w-m-50: I have been writing blogs for nearly 140 days this year. If these blogs or our techshek conferences have impacted your life in some way, please support me on the launch day. I will remind you on phone call or email you if you feel you will forget. 
+button.default: Set a reminder*goto("https://docs.google.com/forms/d/e/1FAIpQLScRWGicOlVW-RpquUYvHD769v45XACKZydnpTJcJVWxzHW0jg/viewform?usp=sf_link")
+button.default: What is Product Hunt*goto("https://www.producthunt.com/about")
+button.default: What is Zakatlists*goto("https://www.zakatlists.com/blogpost?serialNo=136")
+svg: /icons/producthunt.svg</t>
   </si>
 </sst>
 </file>
@@ -662,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,38 +994,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43971</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B38041-72F9-594C-9CE3-BFA8A15B8359}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4526C24-9A7B-7641-B924-D387A3561A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -315,6 +315,7 @@
 button.default: Set a reminder*goto("https://docs.google.com/forms/d/e/1FAIpQLScRWGicOlVW-RpquUYvHD769v45XACKZydnpTJcJVWxzHW0jg/viewform?usp=sf_link")
 button.default: What is Product Hunt*goto("https://www.producthunt.com/about")
 button.default: What is Zakatlists*goto("https://www.zakatlists.com/blogpost?serialNo=136")
+button.default: Sign Up*goto("https://www.zakatlists.com/signup")
 svg: /icons/producthunt.svg</t>
   </si>
 </sst>
@@ -1008,16 +1009,16 @@
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4526C24-9A7B-7641-B924-D387A3561A99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58E8F3-C7F4-CB48-8A2F-97458B487988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -307,10 +307,16 @@
 ser: 144</t>
   </si>
   <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 140</t>
+  </si>
+  <si>
     <t>type: signin
 width: 4
 height: 1
-h3: Zakatlists is Launching on Product Hunt - 27 May 2020
+h3: Zakatlists is Launching on Product Hunt - Today
 p.w-m-50: I have been writing blogs for nearly 140 days this year. If these blogs or our techshek conferences have impacted your life in some way, please support me on the launch day. I will remind you on phone call or email you if you feel you will forget. 
 button.default: Set a reminder*goto("https://docs.google.com/forms/d/e/1FAIpQLScRWGicOlVW-RpquUYvHD769v45XACKZydnpTJcJVWxzHW0jg/viewform?usp=sf_link")
 button.default: What is Product Hunt*goto("https://www.producthunt.com/about")
@@ -1000,31 +1006,31 @@
         <v>43971</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>5</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58E8F3-C7F4-CB48-8A2F-97458B487988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF487FC0-178B-0442-93E7-151CFCDD1216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -316,9 +316,9 @@
     <t>type: signin
 width: 4
 height: 1
-h3: Zakatlists is Launching on Product Hunt - Today
-p.w-m-50: I have been writing blogs for nearly 140 days this year. If these blogs or our techshek conferences have impacted your life in some way, please support me on the launch day. I will remind you on phone call or email you if you feel you will forget. 
-button.default: Set a reminder*goto("https://docs.google.com/forms/d/e/1FAIpQLScRWGicOlVW-RpquUYvHD769v45XACKZydnpTJcJVWxzHW0jg/viewform?usp=sf_link")
+h3: Zakatlists is live on Product Hunt. 
+p.w-m-50: I have been writing blogs for nearly 140 days this year. If these blogs or our techshek conferences have impacted your life in some way, please upvote. 
+button.default: UpVote*goto("https://www.producthunt.com/posts/zakat-lists")
 button.default: What is Product Hunt*goto("https://www.producthunt.com/about")
 button.default: What is Zakatlists*goto("https://www.zakatlists.com/blogpost?serialNo=136")
 button.default: Sign Up*goto("https://www.zakatlists.com/signup")

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF487FC0-178B-0442-93E7-151CFCDD1216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA11CB81-6CA3-F242-909D-82603C6E7304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>Day</t>
   </si>
@@ -323,6 +323,12 @@
 button.default: What is Zakatlists*goto("https://www.zakatlists.com/blogpost?serialNo=136")
 button.default: Sign Up*goto("https://www.zakatlists.com/signup")
 svg: /icons/producthunt.svg</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 145</t>
   </si>
 </sst>
 </file>
@@ -680,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1015,7 @@
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
@@ -1021,7 +1027,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
@@ -1030,7 +1036,7 @@
         <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>5</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA11CB81-6CA3-F242-909D-82603C6E7304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F61612-0E6A-104A-8208-BF6EF12051E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>Day</t>
   </si>
@@ -329,6 +329,12 @@
 width: 2
 height: 1
 ser: 145</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 146</t>
   </si>
 </sst>
 </file>
@@ -684,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,33 +1021,54 @@
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F61612-0E6A-104A-8208-BF6EF12051E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9927D-9A68-AA40-91D6-456327DAF587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Day</t>
   </si>
@@ -335,6 +335,12 @@
 width: 2
 height: 1
 ser: 146</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 147</t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43971</v>
       </c>
@@ -1045,13 +1051,13 @@
         <v>43981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -1066,7 +1072,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A9927D-9A68-AA40-91D6-456327DAF587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747353B8-083D-D445-92C4-A6A9CF07FE96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -328,12 +328,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 145</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 146</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
 width: 2
 height: 1
 ser: 147</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 148</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747353B8-083D-D445-92C4-A6A9CF07FE96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2CFAFC-CDB2-C747-95F4-B5295F80B816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -328,12 +328,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 146</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 147</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
 width: 2
 height: 1
 ser: 148</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 149</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2CFAFC-CDB2-C747-95F4-B5295F80B816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8ABBD3-50F3-DF47-856B-2E1AF8E1DE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="4580" yWindow="460" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 149</t>
+ser: 151</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8ABBD3-50F3-DF47-856B-2E1AF8E1DE0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E1E36-72EB-B048-A3C4-7BFE13920FA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4580" yWindow="460" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -328,12 +328,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 147</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 148</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
 width: 2
 height: 1
 ser: 151</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 149</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E1E36-72EB-B048-A3C4-7BFE13920FA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2744B5-BAD2-B24D-A3DD-0CE7285B8629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4580" yWindow="460" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -328,12 +328,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 148</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 151</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
 width: 2
 height: 1
 ser: 149</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 150</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2744B5-BAD2-B24D-A3DD-0CE7285B8629}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD8071-FB9E-5C4B-AF27-7B472711CDBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4580" yWindow="460" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -328,12 +328,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 151</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 149</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
 width: 2
 height: 1
 ser: 150</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 152</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FD8071-FB9E-5C4B-AF27-7B472711CDBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACFFD4-E2EE-364D-95E9-1290A885B579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="460" windowWidth="43640" windowHeight="20860" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,19 +328,19 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 149</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 150</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 152</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 153</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 151</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1051,13 +1051,13 @@
         <v>43981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACFFD4-E2EE-364D-95E9-1290A885B579}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A98624-69FB-2F4B-BC59-2110F793531B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 151</t>
+ser: 155</t>
   </si>
 </sst>
 </file>
@@ -1051,13 +1051,13 @@
         <v>43981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A98624-69FB-2F4B-BC59-2110F793531B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD19DE-169D-324D-9A31-A2CD76D6F888}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>Day</t>
   </si>
@@ -328,12 +328,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 152</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 153</t>
   </si>
   <si>
@@ -341,6 +335,22 @@
 width: 2
 height: 1
 ser: 155</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 154</t>
+  </si>
+  <si>
+    <t>type: meetup
+width: 2
+height: 1
+h3: Meetup coming in
+date: 2020,6,5,10,30,0,0
+button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
+button.default: Attend*goto("https://youtu.be/vscn-HP932E")
+button.default: Details*goto("https://www.meetup.com/techshek/events/270179438/")</t>
   </si>
 </sst>
 </file>
@@ -698,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADD19DE-169D-324D-9A31-A2CD76D6F888}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B299429C-B6B9-8C48-809A-E0AD75F85840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -328,12 +328,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 153</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 155</t>
   </si>
   <si>
@@ -351,6 +345,12 @@
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
 button.default: Details*goto("https://www.meetup.com/techshek/events/270179438/")</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 156</t>
   </si>
 </sst>
 </file>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1061,7 @@
         <v>43981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B299429C-B6B9-8C48-809A-E0AD75F85840}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D352D-89D6-A841-B5D0-DF6BEAC9641A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -325,18 +325,6 @@
 svg: /icons/producthunt.svg</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 155</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 154</t>
-  </si>
-  <si>
     <t>type: meetup
 width: 2
 height: 1
@@ -351,6 +339,18 @@
 width: 2
 height: 1
 ser: 156</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 159</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 154</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
         <v>43981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
@@ -1082,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D352D-89D6-A841-B5D0-DF6BEAC9641A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2806D6F9-4262-DD41-A9D7-6610CAB850A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -350,7 +350,7 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 154</t>
+ser: 160</t>
   </si>
 </sst>
 </file>
@@ -1061,13 +1061,13 @@
         <v>43981</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -1082,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>4</v>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2806D6F9-4262-DD41-A9D7-6610CAB850A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BC584-2729-0A44-A30A-B5046E66A633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -338,12 +338,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 156</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 159</t>
   </si>
   <si>
@@ -351,6 +345,12 @@
 width: 2
 height: 1
 ser: 160</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 161</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8BC584-2729-0A44-A30A-B5046E66A633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659A501-8DE9-5844-AB46-DD692717C05D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>Day</t>
   </si>
@@ -301,30 +301,6 @@
 svg: /icons/stars.svg</t>
   </si>
   <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 144</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 140</t>
-  </si>
-  <si>
-    <t>type: signin
-width: 4
-height: 1
-h3: Zakatlists is live on Product Hunt. 
-p.w-m-50: I have been writing blogs for nearly 140 days this year. If these blogs or our techshek conferences have impacted your life in some way, please upvote. 
-button.default: UpVote*goto("https://www.producthunt.com/posts/zakat-lists")
-button.default: What is Product Hunt*goto("https://www.producthunt.com/about")
-button.default: What is Zakatlists*goto("https://www.zakatlists.com/blogpost?serialNo=136")
-button.default: Sign Up*goto("https://www.zakatlists.com/signup")
-svg: /icons/producthunt.svg</t>
-  </si>
-  <si>
     <t>type: meetup
 width: 2
 height: 1
@@ -338,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 159</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 160</t>
   </si>
   <si>
@@ -351,6 +321,12 @@
 width: 2
 height: 1
 ser: 161</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 162</t>
   </si>
 </sst>
 </file>
@@ -706,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06056B57-AC2B-FC4C-B6E5-BFBAF5A1660A}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,62 +1005,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="255" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43971</v>
+        <v>43981</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="255" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43981</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659A501-8DE9-5844-AB46-DD692717C05D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E725EA3-271A-244E-AD14-2FA7C9E2842F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 160</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 161</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 162</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 163</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E725EA3-271A-244E-AD14-2FA7C9E2842F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A376E79-A31C-9542-9D7A-28983F2F38FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 161</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 162</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 163</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 164</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E725EA3-271A-244E-AD14-2FA7C9E2842F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD504DEF-26CE-1A44-AAA4-BCB5F2A51624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="7080" yWindow="4720" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,19 +314,19 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 161</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 162</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 163</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 164</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 165</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD504DEF-26CE-1A44-AAA4-BCB5F2A51624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382A29C-2AAA-324F-997A-C44CF126BC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="4720" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 163</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 164</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 165</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 167</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F382A29C-2AAA-324F-997A-C44CF126BC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4907812-9B23-0A4B-AAF5-063873A6D860}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="4720" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 164</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 165</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 167</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 168</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4907812-9B23-0A4B-AAF5-063873A6D860}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3562C5D-CABC-D241-BC1D-3F0CB493B429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="4720" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 165</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 167</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 168</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 173</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3562C5D-CABC-D241-BC1D-3F0CB493B429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F33C0E0-506F-3E46-B39C-1A44D33098DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="4720" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 167</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 168</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 173</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 174</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F33C0E0-506F-3E46-B39C-1A44D33098DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4462932A-4AAF-B141-8136-AC832C8B73C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="4720" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="11640" yWindow="12080" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 168</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 173</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 174</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 175</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4462932A-4AAF-B141-8136-AC832C8B73C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C569C-C491-CB48-AB26-C16BF9702CF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="12080" windowWidth="28800" windowHeight="18000" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 173</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 174</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 175</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 176</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3C569C-C491-CB48-AB26-C16BF9702CF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF55D92-711F-0C4C-9FE5-CCC11DD0B91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 174</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 175</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 176</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 177</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF55D92-711F-0C4C-9FE5-CCC11DD0B91B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC9E86-342D-9345-AED5-2354C6464DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 175</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 176</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 177</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 178</t>
   </si>
 </sst>
 </file>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QasimAli/nodejs/givezakat/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FC9E86-342D-9345-AED5-2354C6464DC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40319369-D901-614B-B956-D4DB715DBF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
@@ -314,12 +314,6 @@
     <t>type: blog
 width: 2
 height: 1
-ser: 176</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
 ser: 177</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
 width: 2
 height: 1
 ser: 178</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 179</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/dashboard.xlsx
+++ b/static/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qasim/NodeJs/givezakat/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40319369-D901-614B-B956-D4DB715DBF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C0EAD-6A02-8642-A99D-8FBF52941A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{73FE6E76-872B-5644-A670-D7E108E2E90A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,32 +301,32 @@
 svg: /icons/stars.svg</t>
   </si>
   <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 177</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 178</t>
+  </si>
+  <si>
+    <t>type: blog
+width: 2
+height: 1
+ser: 175</t>
+  </si>
+  <si>
     <t>type: meetup
 width: 2
 height: 1
 h3: Meetup coming in
-date: 2020,6,5,10,30,0,0
+date: 2023,2,2,10,30,0,0
 button.default: Speak*goto("https://forms.gle/dyydXFRSsKzeH4hZ6")
 button.default: Attend*goto("https://youtu.be/vscn-HP932E")
 button.default: Details*goto("https://www.meetup.com/techshek/events/270179438/")</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 177</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 178</t>
-  </si>
-  <si>
-    <t>type: blog
-width: 2
-height: 1
-ser: 179</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -674,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,7 +685,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,25 +1010,25 @@
         <v>43981</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>4</v>
